--- a/biology/Zoologie/Goniodiadema_mauritiense/Goniodiadema_mauritiense.xlsx
+++ b/biology/Zoologie/Goniodiadema_mauritiense/Goniodiadema_mauritiense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goniodiadema mauritiense est une espèce d’oursins (échinodermes) réguliers de la famille des Diadematidae. Il semble endémique des abysses entourant l'île Maurice.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins dits « réguliers » : ils sont caractérisés par un test (coquille) de forme ronde, et presque uniformément couvert de radioles (piquants) réparties sur tout le corps, mais plus longues sur la partie supérieure. La bouche (appelée « péristome ») se situe au centre de la face inférieure (dite face « orale »), et l'anus (appelé « périprocte ») à l'opposé, soit au sommet du test (à l'« apex » de la face aborale).
 Cet oursin est caractérisé par plusieurs traits squelettiques, au premier rang desquels se trouve leur test gonflé, pentagonal et légèrement souple.
@@ -522,7 +536,7 @@
 Les tubercules primaires sont perforés et crénulés, et les plaques ambitales peuvent en porter jusqu'à huit.
 La face aborale est presque nue, alors que la face orale est densément granulée.
 Le péristome est réduit.
-Les radioles sont longues (au moins la diamètre du test), très fines et creuses[2].
+Les radioles sont longues (au moins la diamètre du test), très fines et creuses.
 </t>
         </is>
       </c>
@@ -551,9 +565,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve cet oursin en grande profondeur à l'île Maurice[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cet oursin en grande profondeur à l'île Maurice.
 </t>
         </is>
       </c>
